--- a/AE Sakib/Narail/2021_22/Bridges/Kalishankar Pur Khal Footoverbridge/Stiffness Method Readings/Continuous Beam/Input_sheet_Beam.xlsx
+++ b/AE Sakib/Narail/2021_22/Bridges/Kalishankar Pur Khal Footoverbridge/Stiffness Method Readings/Continuous Beam/Input_sheet_Beam.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -126,10 +126,10 @@
     <t>structure_name</t>
   </si>
   <si>
-    <t>Ex_5_3_Geer</t>
-  </si>
-  <si>
     <t>R_y</t>
+  </si>
+  <si>
+    <t>Ex_5_3_Geer_Modified</t>
   </si>
 </sst>
 </file>
@@ -599,7 +599,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>24</v>
@@ -752,8 +752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -871,13 +871,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.77734375" customWidth="1"/>
+    <col min="1" max="1" width="26.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -887,7 +887,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
